--- a/getNseMarketData/parameterfile/MarketData.xlsx
+++ b/getNseMarketData/parameterfile/MarketData.xlsx
@@ -8,12 +8,46 @@
   </bookViews>
   <sheets>
     <sheet name="MarketData" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="List of Available Parameters" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>nobin thomas</author>
+  </authors>
+  <commentList>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>nobin thomas:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+Static Colmns.Update the next colmn headers to fetch the required data</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
   <si>
@@ -396,7 +430,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="18">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -532,8 +566,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -711,6 +758,12 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -874,10 +927,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1215,7 +1269,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1224,28 +1280,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1669,6 +1725,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1676,7 +1733,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A68"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>

--- a/getNseMarketData/parameterfile/MarketData.xlsx
+++ b/getNseMarketData/parameterfile/MarketData.xlsx
@@ -8,7 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="MarketData" sheetId="1" r:id="rId1"/>
-    <sheet name="List of Available Parameters" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="73">
   <si>
     <t>SYMBOL</t>
   </si>
@@ -268,162 +268,6 @@
   </si>
   <si>
     <t>1,660</t>
-  </si>
-  <si>
-    <t>symbol</t>
-  </si>
-  <si>
-    <t>applicableMargin</t>
-  </si>
-  <si>
-    <t>bcEndDate</t>
-  </si>
-  <si>
-    <t>totalSellQuantity</t>
-  </si>
-  <si>
-    <t>adhocMargin</t>
-  </si>
-  <si>
-    <t>companyName</t>
-  </si>
-  <si>
-    <t>marketType</t>
-  </si>
-  <si>
-    <t>exDate</t>
-  </si>
-  <si>
-    <t>bcStartDate</t>
-  </si>
-  <si>
-    <t>css_status_desc</t>
-  </si>
-  <si>
-    <t>dayHigh</t>
-  </si>
-  <si>
-    <t>securityVar</t>
-  </si>
-  <si>
-    <t>sellQuantity5</t>
-  </si>
-  <si>
-    <t>sellQuantity4</t>
-  </si>
-  <si>
-    <t>sellQuantity3</t>
-  </si>
-  <si>
-    <t>cm_adj_high_dt</t>
-  </si>
-  <si>
-    <t>sellQuantity2</t>
-  </si>
-  <si>
-    <t>dayLow</t>
-  </si>
-  <si>
-    <t>sellQuantity1</t>
-  </si>
-  <si>
-    <t>quantityTraded</t>
-  </si>
-  <si>
-    <t>pChange</t>
-  </si>
-  <si>
-    <t>totalTradedValue</t>
-  </si>
-  <si>
-    <t>deliveryToTradedQuantity</t>
-  </si>
-  <si>
-    <t>totalBuyQuantity</t>
-  </si>
-  <si>
-    <t>indexVar</t>
-  </si>
-  <si>
-    <t>cm_ffm</t>
-  </si>
-  <si>
-    <t>purpose</t>
-  </si>
-  <si>
-    <t>secDate</t>
-  </si>
-  <si>
-    <t>high52</t>
-  </si>
-  <si>
-    <t>previousClose</t>
-  </si>
-  <si>
-    <t>ndEndDate</t>
-  </si>
-  <si>
-    <t>low52</t>
-  </si>
-  <si>
-    <t>recordDate</t>
-  </si>
-  <si>
-    <t>deliveryQuantity</t>
-  </si>
-  <si>
-    <t>priceBand</t>
-  </si>
-  <si>
-    <t>extremeLossMargin</t>
-  </si>
-  <si>
-    <t>cm_adj_low_dt</t>
-  </si>
-  <si>
-    <t>varMargin</t>
-  </si>
-  <si>
-    <t>change</t>
-  </si>
-  <si>
-    <t>surv_indicator</t>
-  </si>
-  <si>
-    <t>ndStartDate</t>
-  </si>
-  <si>
-    <t>buyQuantity4</t>
-  </si>
-  <si>
-    <t>isExDateFlag</t>
-  </si>
-  <si>
-    <t>buyQuantity2</t>
-  </si>
-  <si>
-    <t>buyQuantity1</t>
-  </si>
-  <si>
-    <t>series</t>
-  </si>
-  <si>
-    <t>faceValue</t>
-  </si>
-  <si>
-    <t>buyQuantity5</t>
-  </si>
-  <si>
-    <t>closePrice</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>isinCode</t>
-  </si>
-  <si>
-    <t>Available Columns that can be sourced</t>
   </si>
 </sst>
 </file>
@@ -927,10 +771,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
@@ -1269,9 +1112,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:X6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1280,28 +1121,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
       <c r="I1" t="s">
@@ -1731,355 +1572,14 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A68"/>
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
-  <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
-      <c r="A2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
-      <c r="A6" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
-      <c r="A9" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
-      <c r="A10" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
-      <c r="A11" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
-      <c r="A12" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
-      <c r="A13" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
-      <c r="A14" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
-      <c r="A17" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
-      <c r="A18" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
-      <c r="A20" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
-      <c r="A22" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
-      <c r="A23" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
-      <c r="A27" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
-      <c r="A30" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
-      <c r="A31" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
-      <c r="A32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
-      <c r="A34" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
-      <c r="A37" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
-      <c r="A45" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
-      <c r="A47" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
-      <c r="A48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
-      <c r="A61" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
-      <c r="A62" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
-      <c r="A63" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
-      <c r="A64" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
-      <c r="A65" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
-      <c r="A66" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
-      <c r="A67" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
-      <c r="A68" t="s">
-        <v>30</v>
-      </c>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
